--- a/文档作业/01_日本IT常识/刘鉴霆第二回作业.xlsx
+++ b/文档作业/01_日本IT常识/刘鉴霆第二回作业.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuji\git\2024REI\文档作业\01_日本IT常识\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97343DCB-FAC0-4AC4-9F2B-11181F24DE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B05A4-8A5E-4C9E-8ACF-3B975DFBDFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="5040" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,11 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -426,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -436,183 +434,183 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
